--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure7.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure7.xlsx
@@ -37,16 +37,22 @@
     <t>gender</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>diabetesmed</t>
   </si>
   <si>
-    <t>change</t>
+    <t>insulin</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>race</t>
@@ -55,19 +61,13 @@
     <t>diag_1</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
     <t>a1cresult</t>
   </si>
   <si>
-    <t>diabetesmed</t>
+    <t>change</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.304908530274195</v>
+        <v>1.304906340655304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.296981392078957</v>
+        <v>1.29765412767582</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.241924743089452</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1.192424001771182</v>
+        <v>1.243097771932195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>1.184771133927678</v>
+        <v>1.185080191595059</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1.178910729646047</v>
+        <v>1.181620249951032</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>1.171558372258012</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.170647966153055</v>
+        <v>1.171228606904582</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164711754837193</v>
+        <v>1.165136998869765</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.163933330683921</v>
+        <v>1.164735484821521</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1.1631689960717</v>
+        <v>1.163824746277948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>1.162679370578316</v>
+        <v>1.163554410267457</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1.145263247894013</v>
+        <v>1.132890330068686</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.143642377914989</v>
+        <v>1.132174095189508</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.13460813398065</v>
+        <v>1.118033988749895</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.097236442147123</v>
+        <v>1.099997263419507</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9837108098027748</v>
+        <v>0.9805341557580214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9811293455024458</v>
+        <v>0.9796641301619813</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9775304194857707</v>
+        <v>0.9759634595052477</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9760953306057353</v>
+        <v>0.9704780796036298</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9734388077224861</v>
+        <v>0.9661882951425812</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9667437191664238</v>
+        <v>0.965741009577386</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9661981252225585</v>
+        <v>0.9656819435743796</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9660748923292822</v>
+        <v>0.9656232691095524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9659826923360809</v>
+        <v>0.9653990200000602</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9654417542242333</v>
+        <v>0.9651244927229261</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9651654858663336</v>
+        <v>0.9626559895706187</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9644828339410412</v>
+        <v>0.9609975101749809</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9378335889777226</v>
+        <v>0.9354009001668775</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.6734600115053412</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.6475417707203036</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6273343503242702</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6125101558000199</v>
+        <v>0.7102631148008588</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.5911951368618215</v>
+        <v>0.6752424608630451</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.5842570497494912</v>
+        <v>0.6037914697216047</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.5635773136718069</v>
+        <v>0.6003472572059905</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5569596768462265</v>
+        <v>0.5910210373136018</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5547001962252291</v>
+        <v>0.5869022612420183</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.531147563462856</v>
+        <v>0.5635773136718069</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5274560679273101</v>
+        <v>0.557166072879565</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5123831273966017</v>
+        <v>0.5547001962252291</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.5004992512476921</v>
+        <v>0.5334600874057385</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.4880711008692505</v>
+        <v>0.5277548312741757</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4834176655433773</v>
+        <v>0.5147512737210047</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4771187236136979</v>
+        <v>0.4937104414532875</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4616103466664636</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4614358860373529</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1342,13 +1342,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4552420828903506</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4480620839084176</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4399266159951885</v>
+        <v>0.4579994970335558</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>0.4371981142939562</v>
+        <v>0.4539621887859995</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4355179334403341</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4349282257756498</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4349282257756498</v>
+        <v>0.4197200834527796</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,7 +1458,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4309066795526431</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.4190581774617468</v>
+        <v>0.4167017430750354</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0.4091123089763155</v>
+        <v>0.4121272358542344</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3962969619506086</v>
+        <v>0.4050957468334667</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.3932975235308965</v>
+        <v>0.3923380087590502</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3929768923333085</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>0.3875227837745358</v>
+        <v>0.3891994880613808</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3825427632223676</v>
+        <v>0.3843599684153426</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3734377890799552</v>
+        <v>0.3813092585389396</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3716469448585756</v>
+        <v>0.3719707927409538</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -1637,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3661651499276971</v>
+        <v>0.3719091345593716</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3640863337239637</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.3636812022898779</v>
+        <v>0.3590238556114746</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3431260128710849</v>
+        <v>0.3555898589068854</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3396831102433788</v>
+        <v>0.3503314431593272</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3283243607719658</v>
+        <v>0.3498285100979472</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>0.3274805882893888</v>
+        <v>0.3434673650431314</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3219879219635288</v>
+        <v>0.3205583652731354</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3177207586834341</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3170893890458838</v>
+        <v>0.3162078835829204</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3097421611920875</v>
+        <v>0.3116731158637562</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3084702846124328</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3080667052849024</v>
+        <v>0.3024950709910101</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E82">
-        <v>0.3065619619711661</v>
+        <v>0.3007568476342625</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3019649258182993</v>
+        <v>0.2976330059013036</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
       <c r="E84">
-        <v>0.2951675967784494</v>
+        <v>0.2975894847874094</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.2947822106643104</v>
+        <v>0.29341828223268</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2927700218845599</v>
+        <v>0.2929816052561959</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>0.2902875765812155</v>
+        <v>0.2926329321712867</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.2899201163139871</v>
+        <v>0.2900504810026467</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2899167538069007</v>
+        <v>0.2895926208237496</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2880073204162402</v>
+        <v>0.2873088616214265</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91">
-        <v>0.287773479776561</v>
+        <v>0.2841235580220227</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.287208754928315</v>
+        <v>0.2837929451749865</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2856642747558638</v>
+        <v>0.2824177816046412</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2062,7 +2062,7 @@
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2855810580144934</v>
+        <v>0.2782159797452985</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2790515522801784</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2780930678058143</v>
+        <v>0.2686076546751267</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>0.2769113493625919</v>
+        <v>0.2669797771862696</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2720363855560753</v>
+        <v>0.2642624635065786</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2686400160230676</v>
+        <v>0.2628257450390453</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2666666666666667</v>
+        <v>0.2621444114770834</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2663882364519108</v>
+        <v>0.2607301894321137</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.26398064648602</v>
+        <v>0.2595363857940225</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.2619520929441478</v>
+        <v>0.2585939338540553</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2611352519378787</v>
+        <v>0.2578067960420061</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.257213223322785</v>
+        <v>0.257713799720566</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2561851188818766</v>
+        <v>0.257552394884153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2559857961155406</v>
+        <v>0.2545258876721421</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,7 +2291,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -2300,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2552551859790366</v>
+        <v>0.2544732063198308</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,7 +2308,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>25</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2547099277388856</v>
+        <v>0.2539395016139447</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2517557730332066</v>
+        <v>0.2533463883496896</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2494939249758792</v>
+        <v>0.2456066865148352</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.2460175090095595</v>
+        <v>0.2432196694054413</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2439857341984249</v>
+        <v>0.2395873392959469</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.238851142385033</v>
+        <v>0.2369637485090878</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
         <v>28</v>
       </c>
       <c r="E115">
-        <v>0.2369085016806019</v>
+        <v>0.2359554293411337</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2353543123007217</v>
+        <v>0.234727465428797</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
       </c>
       <c r="E117">
-        <v>0.2336714520312616</v>
+        <v>0.2340990158497965</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2464,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
       <c r="E118">
-        <v>0.2318649015529796</v>
+        <v>0.2330077735766091</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         <v>26</v>
       </c>
       <c r="E119">
-        <v>0.2291637615110012</v>
+        <v>0.2328338916889544</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2287998409714567</v>
+        <v>0.2316353729759835</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2515,13 +2515,13 @@
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121">
-        <v>0.2283231471244766</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0.227597773095194</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123">
-        <v>0.2274706171615934</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2272072634786108</v>
+        <v>0.229713895550635</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2255146856351881</v>
+        <v>0.2285121437756787</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2250383729447459</v>
+        <v>0.2280006210486942</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2248773633138582</v>
+        <v>0.2262132791599512</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
         <v>28</v>
       </c>
       <c r="E128">
-        <v>0.2247440865799598</v>
+        <v>0.225876040425059</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2651,13 +2651,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.224556027286519</v>
+        <v>0.2243188460763659</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2240512320451444</v>
+        <v>0.2241072616797059</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2226525516434507</v>
+        <v>0.2240510088994069</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132">
-        <v>0.2219817323886465</v>
+        <v>0.2233892709208599</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2218274309964025</v>
+        <v>0.2233055728495114</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2217358457124734</v>
+        <v>0.2223133939011831</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2202072708823487</v>
+        <v>0.2217493818925095</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
       </c>
       <c r="E136">
-        <v>0.2200275343260653</v>
+        <v>0.2216778274210243</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2195338062124179</v>
+        <v>0.2210721955248055</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,7 +2801,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
@@ -2810,7 +2810,7 @@
         <v>29</v>
       </c>
       <c r="E138">
-        <v>0.2192728713747797</v>
+        <v>0.2205445961261749</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2192415919780793</v>
+        <v>0.2199895144088212</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2182954388885375</v>
+        <v>0.2195808504970329</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.2181857237846874</v>
+        <v>0.2194577656694753</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,7 +2869,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
@@ -2878,7 +2878,7 @@
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2176332073370872</v>
+        <v>0.219176605540199</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2163843714197431</v>
+        <v>0.218648123188321</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2148122043866497</v>
+        <v>0.218497690540039</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2141367315144309</v>
+        <v>0.2170282303248554</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2140628697220452</v>
+        <v>0.2168291817961013</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2138331834885689</v>
+        <v>0.2165846530626948</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.213557271292888</v>
+        <v>0.2161993579999371</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2135492138469731</v>
+        <v>0.2152403793778445</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2127669076846212</v>
+        <v>0.2147593294268249</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.2116278766309642</v>
+        <v>0.2128328528460525</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.2113140233932707</v>
+        <v>0.212640164372184</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>0.2109831845612959</v>
+        <v>0.2114079412120276</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.210964806220515</v>
+        <v>0.2093029785305689</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>0.2107897398131141</v>
+        <v>0.2092353383624412</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0.2107897398131141</v>
+        <v>0.2084658778341219</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2107897398131141</v>
+        <v>0.2083419669040891</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
         <v>27</v>
       </c>
       <c r="E158">
-        <v>0.2107897398131141</v>
+        <v>0.2080806490756728</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.210477817962139</v>
+        <v>0.2071038080443073</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2085854768772234</v>
+        <v>0.2060972163640603</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2083695303679527</v>
+        <v>0.2053628134009743</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
       </c>
       <c r="E162">
-        <v>0.2080515687557414</v>
+        <v>0.2045036708738386</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2070893444121102</v>
+        <v>0.2037657133231457</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2047924315841219</v>
+        <v>0.2034864853673199</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2047189853794762</v>
+        <v>0.2031370974070927</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3280,13 +3280,13 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
       </c>
       <c r="E166">
-        <v>0.203940902654743</v>
+        <v>0.2029141858908271</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
       </c>
       <c r="E167">
-        <v>0.2039317931978707</v>
+        <v>0.2015961201733689</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E168">
-        <v>0.2028171098704289</v>
+        <v>0.2011564200225456</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E169">
-        <v>0.2018166212535238</v>
+        <v>0.2005681907988247</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3348,13 +3348,13 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>0.2015973592117171</v>
+        <v>0.1988292301608545</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>0.2012276429948792</v>
+        <v>0.1971054536562094</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.2006264246753488</v>
+        <v>0.1964053902899289</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E173">
-        <v>0.1995927605712267</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1991668899557736</v>
+        <v>0.1948740984443292</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
-        <v>0.199080873028847</v>
+        <v>0.1947022066686304</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
         <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1989821734974703</v>
+        <v>0.1945865181654735</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E177">
-        <v>0.1978798998689157</v>
+        <v>0.1933933400211124</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3484,13 +3484,13 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.1970841295962529</v>
+        <v>0.1903445781949592</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E179">
-        <v>0.196149817600457</v>
+        <v>0.188617813932955</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3524,7 +3524,7 @@
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1935345523096926</v>
+        <v>0.1886167968726925</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1934348367747463</v>
+        <v>0.1863564287932698</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
         <v>25</v>
@@ -3558,7 +3558,7 @@
         <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1932549797497796</v>
+        <v>0.18445860826785</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1909372168110664</v>
+        <v>0.1841691056329446</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -3592,7 +3592,7 @@
         <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1906399020419833</v>
+        <v>0.1828849318610375</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1887403904359057</v>
+        <v>0.1823793897896837</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3620,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.1880327094238573</v>
+        <v>0.1808967062657733</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187">
-        <v>0.1863803428966124</v>
+        <v>0.177773018189065</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1830954431096347</v>
+        <v>0.1775104587418415</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1815434391301573</v>
+        <v>0.1771717834205259</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1814391496760543</v>
+        <v>0.1771484031589922</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1810603407392464</v>
+        <v>0.1767241161845122</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
         <v>25</v>
@@ -3728,7 +3728,7 @@
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.1800432266929682</v>
+        <v>0.1749324481559921</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E193">
-        <v>0.1795986603635071</v>
+        <v>0.1739184295761388</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
         <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1768469595113204</v>
+        <v>0.1732479905643715</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
       </c>
       <c r="E195">
-        <v>0.173881956257939</v>
+        <v>0.1722503492816326</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1737723321477515</v>
+        <v>0.1720921719130316</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1734476436759899</v>
+        <v>0.1714241266875863</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1732023015381469</v>
+        <v>0.1705023999966551</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1726431098721244</v>
+        <v>0.1699357943116967</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
         <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1722934904493544</v>
+        <v>0.1688105011301704</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.1720869010713055</v>
+        <v>0.1676842517876581</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
         <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1713308408095094</v>
+        <v>0.1670358408549395</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1707799379136261</v>
+        <v>0.1663284915735509</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1697845040949318</v>
+        <v>0.1634651995914872</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1694811941201096</v>
+        <v>0.1630890557537605</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1689819250386686</v>
+        <v>0.1627124217703199</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E207">
-        <v>0.1689819250386686</v>
+        <v>0.1614386680299519</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E208">
-        <v>0.1660270511509858</v>
+        <v>0.1613104667149373</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
         <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.163004616063922</v>
+        <v>0.1585210479483271</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1610827254573995</v>
+        <v>0.157911203543927</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
         <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1597822687689341</v>
+        <v>0.1562988143007536</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1594332003970411</v>
+        <v>0.1552092481267883</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E213">
-        <v>0.1593646070772849</v>
+        <v>0.1551863355180532</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1589910332145642</v>
+        <v>0.1536838492686649</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
         <v>26</v>
       </c>
       <c r="E215">
-        <v>0.1569185074688215</v>
+        <v>0.1536615612241462</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1563670668393078</v>
+        <v>0.1532572613955678</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>0.15595932769408</v>
+        <v>0.1522773975253763</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1553589395956281</v>
+        <v>0.1519377749390473</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1512565188164683</v>
+        <v>0.1507384412902525</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E220">
-        <v>0.1500354459549774</v>
+        <v>0.1507215263559933</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1500318835956193</v>
+        <v>0.1507202583630894</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1499360685743712</v>
+        <v>0.1497439129118321</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1490206684232603</v>
+        <v>0.1481705173869406</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
       </c>
       <c r="E224">
-        <v>0.148593214462804</v>
+        <v>0.1479586487767595</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1484229954697374</v>
+        <v>0.1477827578853768</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1477962839579221</v>
+        <v>0.1474848161520667</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1473969812131619</v>
+        <v>0.1471580768384834</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E228">
-        <v>0.1466102420229472</v>
+        <v>0.1469993129831609</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1453605506816355</v>
+        <v>0.1466536206592121</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1450014124832784</v>
+        <v>0.1463591290256445</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1446131108641724</v>
+        <v>0.145498872239827</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1441782306860537</v>
+        <v>0.1441082484926166</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E233">
-        <v>0.143255822428255</v>
+        <v>0.1437976239255841</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1428072948715964</v>
+        <v>0.1436102489031968</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,7 +4450,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
         <v>19</v>
@@ -4459,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1427699104105139</v>
+        <v>0.1431476516055126</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
         <v>26</v>
       </c>
       <c r="E236">
-        <v>0.1423322310067603</v>
+        <v>0.1424406691633488</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>0.1419758800457208</v>
+        <v>0.141289377347257</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D238" t="s">
         <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1417307456112269</v>
+        <v>0.1411731664139052</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.1413989460383476</v>
+        <v>0.140972863087199</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
         <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1411295657599591</v>
+        <v>0.1408704138933277</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1403665441938182</v>
+        <v>0.1392993822774871</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
         <v>28</v>
       </c>
       <c r="E242">
-        <v>0.1399288691252269</v>
+        <v>0.1385527521732516</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1399073265521686</v>
+        <v>0.138552443542353</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,7 +4603,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
@@ -4612,7 +4612,7 @@
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1396593795856874</v>
+        <v>0.138491993370255</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1384932958322978</v>
+        <v>0.1383936827499212</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1384100188892922</v>
+        <v>0.1377055553604708</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.138389199349722</v>
+        <v>0.1371336731582518</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C248" t="s">
         <v>21</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E248">
-        <v>0.137926966495283</v>
+        <v>0.1349288630085619</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,7 +4688,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
         <v>18</v>
@@ -4697,7 +4697,7 @@
         <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1377317093940506</v>
+        <v>0.1343097752338228</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -4714,7 +4714,7 @@
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1369275268793659</v>
+        <v>0.1342482605830889</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4725,13 +4725,13 @@
         <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E251">
-        <v>0.1364411382227097</v>
+        <v>0.1340732314039871</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1361967371711685</v>
+        <v>0.1337161785907626</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D253" t="s">
         <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1360112971489896</v>
+        <v>0.1333500493121736</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4776,13 +4776,13 @@
         <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1356963498913633</v>
+        <v>0.1331666741314648</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.135307752162192</v>
+        <v>0.1323148065958263</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1351356187562193</v>
+        <v>0.1319712092699278</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1347251493574879</v>
+        <v>0.1314740066333623</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1331690284855426</v>
+        <v>0.1310828365206924</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D259" t="s">
         <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1329008864300209</v>
+        <v>0.1301379850326255</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
         <v>26</v>
       </c>
       <c r="E260">
-        <v>0.1327198734577797</v>
+        <v>0.129378677961651</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1324935282024983</v>
+        <v>0.1281323585746693</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1324841376726869</v>
+        <v>0.1276895320036959</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1299935931558443</v>
+        <v>0.1267511011272573</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C264" t="s">
         <v>25</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E264">
-        <v>0.1296721400997586</v>
+        <v>0.1258282304544715</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C265" t="s">
         <v>23</v>
       </c>
       <c r="D265" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E265">
-        <v>0.1273929206390851</v>
+        <v>0.1249828554234952</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1268183742293959</v>
+        <v>0.1248653888294099</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
         <v>29</v>
       </c>
       <c r="E267">
-        <v>0.126677405604914</v>
+        <v>0.1241891710596878</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
         <v>21</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1262637617594679</v>
+        <v>0.1240792364216205</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1261463672475052</v>
+        <v>0.1230998787396284</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1260583314127015</v>
+        <v>0.122954239494566</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5065,13 +5065,13 @@
         <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E271">
-        <v>0.1256258636678889</v>
+        <v>0.1226124762357141</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D272" t="s">
         <v>28</v>
       </c>
       <c r="E272">
-        <v>0.1254141624723056</v>
+        <v>0.1209228395869333</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1253738288984918</v>
+        <v>0.1206548651518201</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E274">
-        <v>0.1241050922410594</v>
+        <v>0.120609004100766</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,7 +5130,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
         <v>22</v>
@@ -5139,7 +5139,7 @@
         <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1238743155484908</v>
+        <v>0.1199631122491545</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1237002944668722</v>
+        <v>0.1191704585794497</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5167,13 +5167,13 @@
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1236898556343358</v>
+        <v>0.1191014607828491</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.123269777582053</v>
+        <v>0.1190889697830093</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1224064286854918</v>
+        <v>0.1185942337831864</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
         <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1221365702993786</v>
+        <v>0.1180838996118267</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D281" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1218311080266994</v>
+        <v>0.1173207325979491</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,7 +5249,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
         <v>20</v>
@@ -5258,7 +5258,7 @@
         <v>28</v>
       </c>
       <c r="E282">
-        <v>0.121819273056298</v>
+        <v>0.116876774100425</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
         <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1215788943069517</v>
+        <v>0.1163332798333419</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1211732507006274</v>
+        <v>0.1160779394801861</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D285" t="s">
         <v>26</v>
       </c>
       <c r="E285">
-        <v>0.1209242562113373</v>
+        <v>0.1156683092128551</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1181384633863471</v>
+        <v>0.1149202622426812</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s">
         <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1177631082865757</v>
+        <v>0.1140976501010411</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1171684315406948</v>
+        <v>0.1132812662465724</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C289" t="s">
         <v>24</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E289">
-        <v>0.1167296605541498</v>
+        <v>0.1129008355422095</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
         <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1163401626751741</v>
+        <v>0.1116442565067676</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C291" t="s">
         <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E291">
-        <v>0.1159310533558</v>
+        <v>0.1116118685589256</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C292" t="s">
         <v>23</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.115930536424658</v>
+        <v>0.1115259996094555</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1155531050670836</v>
+        <v>0.1111024801814714</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1153523375720364</v>
+        <v>0.110286714861709</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1152254683060835</v>
+        <v>0.1101836397609104</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1146589472398873</v>
+        <v>0.1090208121165107</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E297">
-        <v>0.1144962029864373</v>
+        <v>0.108764793760468</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D298" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1144339004005642</v>
+        <v>0.1078748889326987</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D299" t="s">
         <v>28</v>
       </c>
       <c r="E299">
-        <v>0.114337151636447</v>
+        <v>0.107597214741211</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D300" t="s">
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1125999117051654</v>
+        <v>0.1070175897691787</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
         <v>28</v>
       </c>
       <c r="E301">
-        <v>0.1124593800420559</v>
+        <v>0.1069031102775171</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1107079629807982</v>
+        <v>0.1065310227591467</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1097689938294271</v>
+        <v>0.1063303637729464</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D304" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1095250628607834</v>
+        <v>0.1059374971126325</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D305" t="s">
         <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1094461967235728</v>
+        <v>0.1053341289502809</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>0.1089312385837508</v>
+        <v>0.105167979542446</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D307" t="s">
         <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1087979942541042</v>
+        <v>0.1048376989904184</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D308" t="s">
         <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1086360003448987</v>
+        <v>0.1047425753037838</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1079269602698839</v>
+        <v>0.1047295658804727</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1076535506900976</v>
+        <v>0.1027407550327114</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C311" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1071262161853494</v>
+        <v>0.1023519817656693</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.1070800139981089</v>
+        <v>0.1020104195611773</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E313">
-        <v>0.1069533769334473</v>
+        <v>0.1007698712222544</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.105667313821061</v>
+        <v>0.1004369821772639</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1055615924346103</v>
+        <v>0.10015298239511</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1051073619957397</v>
+        <v>0.09948495952533132</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E317">
-        <v>0.1049336483203567</v>
+        <v>0.09897433186107901</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1048675820638216</v>
+        <v>0.09730369950848053</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E319">
-        <v>0.1044830417938389</v>
+        <v>0.09704106013504077</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
       </c>
       <c r="E320">
-        <v>0.1044782014665937</v>
+        <v>0.09671735210441683</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D321" t="s">
         <v>28</v>
       </c>
       <c r="E321">
-        <v>0.1028223645270794</v>
+        <v>0.09671219482177733</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.1027433263582665</v>
+        <v>0.09557006893491971</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1026491604870343</v>
+        <v>0.09227801055534213</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.1020042255103334</v>
+        <v>0.08974011741817609</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E325">
-        <v>0.1016461128347271</v>
+        <v>0.08898629592926792</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
         <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09989438022647253</v>
+        <v>0.08747724518646549</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C327" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E327">
-        <v>0.09725064386480504</v>
+        <v>0.0874200612097136</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09636254450369226</v>
+        <v>0.08670435347788487</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6051,13 +6051,13 @@
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E329">
-        <v>0.09555365249421416</v>
+        <v>0.08576692531976811</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D330" t="s">
         <v>28</v>
       </c>
       <c r="E330">
-        <v>0.09454393333314538</v>
+        <v>0.08497225076105668</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09356736035145995</v>
+        <v>0.08293672383491497</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D332" t="s">
         <v>28</v>
       </c>
       <c r="E332">
-        <v>0.0927267926611034</v>
+        <v>0.08154631953973353</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>0.09078599185864199</v>
+        <v>0.08130039600598939</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,7 +6133,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
         <v>22</v>
@@ -6142,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="E334">
-        <v>0.08943804614590149</v>
+        <v>0.08047564444821433</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.08870561202792029</v>
+        <v>0.08011936129705681</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D336" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.0863323561563157</v>
+        <v>0.07906213414642452</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E337">
-        <v>0.08494580562196799</v>
+        <v>0.07832198702285724</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C338" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.08407023791791114</v>
+        <v>0.07824083204302633</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E339">
-        <v>0.08271823662842909</v>
+        <v>0.07821887443316933</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.0815381320064977</v>
+        <v>0.0768079495028913</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.08136853702848532</v>
+        <v>0.0767682948632273</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E342">
-        <v>0.08099968398312261</v>
+        <v>0.07523740462263125</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.07894440722020039</v>
+        <v>0.07506152182125239</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D344" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E344">
-        <v>0.07709579665052475</v>
+        <v>0.07430499810293666</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D345" t="s">
         <v>29</v>
       </c>
       <c r="E345">
-        <v>0.076335288613681</v>
+        <v>0.07334201612280331</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.07603627510951137</v>
+        <v>0.07294814340758439</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D347" t="s">
         <v>26</v>
       </c>
       <c r="E347">
-        <v>0.07512864750182838</v>
+        <v>0.0723361247234072</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.07393151650592732</v>
+        <v>0.07096484419322928</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.07347913226722265</v>
+        <v>0.07008060464458808</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D350" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.07343700091753927</v>
+        <v>0.0698807337291871</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,7 +6422,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
         <v>24</v>
@@ -6431,7 +6431,7 @@
         <v>29</v>
       </c>
       <c r="E351">
-        <v>0.07302086243231926</v>
+        <v>0.06924337894937907</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D352" t="s">
         <v>28</v>
       </c>
       <c r="E352">
-        <v>0.07249642387738274</v>
+        <v>0.06867776386731016</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.0722590809435403</v>
+        <v>0.06684840887309916</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E354">
-        <v>0.07219060767216884</v>
+        <v>0.0655145918019054</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07210843633999117</v>
+        <v>0.06550523491606344</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07194696197834727</v>
+        <v>0.06473062147958637</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
         <v>26</v>
       </c>
       <c r="E357">
-        <v>0.06868532909672791</v>
+        <v>0.06255152598592992</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
         <v>28</v>
       </c>
       <c r="E358">
-        <v>0.06765389277863233</v>
+        <v>0.06079553706739165</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.06633911964383225</v>
+        <v>0.05872850297030421</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06586188333839005</v>
+        <v>0.05608888824444906</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C361" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.0635155645709988</v>
+        <v>0.04859804517653691</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C362" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06226458133331415</v>
+        <v>0.04450298822950308</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C363" t="s">
         <v>21</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.06009609852006957</v>
+        <v>0.04416319757003191</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
         <v>21</v>
@@ -6652,7 +6652,7 @@
         <v>26</v>
       </c>
       <c r="E364">
-        <v>0.05779705863096244</v>
+        <v>0.0429131799290528</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D365" t="s">
         <v>26</v>
       </c>
       <c r="E365">
-        <v>0.05741657586859315</v>
+        <v>0.04239586375267303</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.05453489979183657</v>
+        <v>0.03548268939332018</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.04982652159592319</v>
+        <v>0.03439999389672137</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C368" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E368">
-        <v>0.04707133517421567</v>
+        <v>0.03377802722069242</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,7 +6728,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
         <v>24</v>
@@ -6737,7 +6737,7 @@
         <v>26</v>
       </c>
       <c r="E369">
-        <v>0.04623495926692488</v>
+        <v>0.03032012094807004</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.04388236128245009</v>
+        <v>0.03015007105707809</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C371" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D371" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E371">
-        <v>0.04168293917120582</v>
+        <v>0.02079514735210138</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,7 +6779,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
         <v>22</v>
@@ -6788,7 +6788,7 @@
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.03922178714900839</v>
+        <v>0.01724138054627732</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C373" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>0.03916305227754065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C374" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E374">
-        <v>0.03837937053272136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C375" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>0.03174959624206793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.02825932577897946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.02745692405688199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D378" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.02298610496995026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
         <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.009629951755570005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.009304889954032803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6935,7 +6935,7 @@
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -6949,10 +6949,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -6966,10 +6966,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7054,7 +7054,7 @@
         <v>15</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,7 +7085,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C390" t="s">
         <v>22</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
         <v>21</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C393" t="s">
         <v>25</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C396" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7207,7 +7207,7 @@
         <v>8</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,7 +7221,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C398" t="s">
         <v>22</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C400" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,7 +7272,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C401" t="s">
         <v>25</v>
@@ -7292,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7309,7 +7309,7 @@
         <v>6</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C404" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,7 +7340,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C405" t="s">
         <v>21</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C406" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7377,7 +7377,7 @@
         <v>17</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C411" t="s">
         <v>21</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,7 +7476,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
         <v>25</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7530,7 +7530,7 @@
         <v>10</v>
       </c>
       <c r="C416" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,7 +7544,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C417" t="s">
         <v>25</v>
